--- a/config_10.12/box_exchange_server.xlsx
+++ b/config_10.12/box_exchange_server.xlsx
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="822">
   <si>
     <t>id|</t>
   </si>
@@ -5611,6 +5611,190 @@
   <si>
     <t>cylb_csbx</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈福赠礼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>苹果1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3pro</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>平板电脑</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>可乐12瓶</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>亲嘴烧3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0片</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽纸5包</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>800,800</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,1000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,500000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,100</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,100000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,100</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000,80000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_tiny_game_coin</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,30</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,15</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,30000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>lxjkh_024_jfphb_rank</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyqf_qfzl_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyqf_qfzl_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyqf_qfzl_3</t>
   </si>
 </sst>
 </file>
@@ -5782,7 +5966,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5944,6 +6128,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6220,11 +6407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q107"/>
+  <dimension ref="A1:Q110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A105" sqref="A105:A107"/>
+      <selection pane="bottomLeft" activeCell="A108" sqref="A108:A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8986,7 +9173,7 @@
         <v>91</v>
       </c>
       <c r="L95" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -9009,7 +9196,7 @@
         <v>92</v>
       </c>
       <c r="L96" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -9032,7 +9219,7 @@
         <v>93</v>
       </c>
       <c r="L97" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -9055,7 +9242,7 @@
         <v>93</v>
       </c>
       <c r="L98" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -9078,7 +9265,7 @@
         <v>93</v>
       </c>
       <c r="L99" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -9147,7 +9334,7 @@
         <v>96</v>
       </c>
       <c r="L102" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -9170,7 +9357,7 @@
         <v>96</v>
       </c>
       <c r="L103" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -9193,7 +9380,7 @@
         <v>96</v>
       </c>
       <c r="L104" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -9262,6 +9449,75 @@
         <v>99</v>
       </c>
       <c r="L107" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" s="39">
+        <v>107</v>
+      </c>
+      <c r="B108" s="38" t="s">
+        <v>792</v>
+      </c>
+      <c r="C108" s="38">
+        <v>1633996800</v>
+      </c>
+      <c r="D108" s="38">
+        <v>1634572799</v>
+      </c>
+      <c r="E108" s="14">
+        <v>94</v>
+      </c>
+      <c r="K108" s="38">
+        <v>100</v>
+      </c>
+      <c r="L108" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="39">
+        <v>108</v>
+      </c>
+      <c r="B109" s="38" t="s">
+        <v>792</v>
+      </c>
+      <c r="C109" s="38">
+        <v>1633996800</v>
+      </c>
+      <c r="D109" s="38">
+        <v>1634572799</v>
+      </c>
+      <c r="E109" s="14">
+        <v>94</v>
+      </c>
+      <c r="K109" s="38">
+        <v>100</v>
+      </c>
+      <c r="L109" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" s="39">
+        <v>109</v>
+      </c>
+      <c r="B110" s="38" t="s">
+        <v>792</v>
+      </c>
+      <c r="C110" s="38">
+        <v>1633996800</v>
+      </c>
+      <c r="D110" s="38">
+        <v>1634572799</v>
+      </c>
+      <c r="E110" s="14">
+        <v>94</v>
+      </c>
+      <c r="K110" s="38">
+        <v>100</v>
+      </c>
+      <c r="L110" s="38">
         <v>1</v>
       </c>
     </row>
@@ -9275,11 +9531,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K85" sqref="K85"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10602,6 +10858,20 @@
       </c>
       <c r="D94" s="38">
         <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95" s="38" t="s">
+        <v>793</v>
+      </c>
+      <c r="D95" s="38">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -10654,13 +10924,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E653"/>
+  <dimension ref="A1:E668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B624" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B644" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A635" sqref="A635:A653"/>
+      <selection pane="bottomRight" activeCell="A668" sqref="A668"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -19817,6 +20087,216 @@
         <v>5</v>
       </c>
     </row>
+    <row r="654" spans="1:4">
+      <c r="A654" s="4">
+        <v>653</v>
+      </c>
+      <c r="B654" s="4">
+        <v>100</v>
+      </c>
+      <c r="C654" s="8">
+        <v>12130</v>
+      </c>
+      <c r="D654" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4">
+      <c r="A655" s="4">
+        <v>654</v>
+      </c>
+      <c r="B655" s="4">
+        <v>100</v>
+      </c>
+      <c r="C655" s="8">
+        <v>12131</v>
+      </c>
+      <c r="D655" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4">
+      <c r="A656" s="4">
+        <v>655</v>
+      </c>
+      <c r="B656" s="4">
+        <v>100</v>
+      </c>
+      <c r="C656" s="8">
+        <v>12132</v>
+      </c>
+      <c r="D656" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4">
+      <c r="A657" s="4">
+        <v>656</v>
+      </c>
+      <c r="B657" s="4">
+        <v>100</v>
+      </c>
+      <c r="C657" s="8">
+        <v>12133</v>
+      </c>
+      <c r="D657" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4">
+      <c r="A658" s="4">
+        <v>657</v>
+      </c>
+      <c r="B658" s="4">
+        <v>100</v>
+      </c>
+      <c r="C658" s="8">
+        <v>12134</v>
+      </c>
+      <c r="D658" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4">
+      <c r="A659" s="4">
+        <v>658</v>
+      </c>
+      <c r="B659" s="4">
+        <v>100</v>
+      </c>
+      <c r="C659" s="8">
+        <v>12135</v>
+      </c>
+      <c r="D659" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4">
+      <c r="A660" s="4">
+        <v>659</v>
+      </c>
+      <c r="B660" s="4">
+        <v>100</v>
+      </c>
+      <c r="C660" s="8">
+        <v>12136</v>
+      </c>
+      <c r="D660" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4">
+      <c r="A661" s="4">
+        <v>660</v>
+      </c>
+      <c r="B661" s="4">
+        <v>100</v>
+      </c>
+      <c r="C661" s="8">
+        <v>12137</v>
+      </c>
+      <c r="D661" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4">
+      <c r="A662" s="4">
+        <v>661</v>
+      </c>
+      <c r="B662" s="4">
+        <v>100</v>
+      </c>
+      <c r="C662" s="8">
+        <v>12138</v>
+      </c>
+      <c r="D662" s="4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4">
+      <c r="A663" s="4">
+        <v>662</v>
+      </c>
+      <c r="B663" s="4">
+        <v>100</v>
+      </c>
+      <c r="C663" s="8">
+        <v>12139</v>
+      </c>
+      <c r="D663" s="4">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4">
+      <c r="A664" s="4">
+        <v>663</v>
+      </c>
+      <c r="B664" s="4">
+        <v>100</v>
+      </c>
+      <c r="C664" s="8">
+        <v>12140</v>
+      </c>
+      <c r="D664" s="4">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4">
+      <c r="A665" s="4">
+        <v>664</v>
+      </c>
+      <c r="B665" s="4">
+        <v>100</v>
+      </c>
+      <c r="C665" s="8">
+        <v>12141</v>
+      </c>
+      <c r="D665" s="4">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4">
+      <c r="A666" s="4">
+        <v>665</v>
+      </c>
+      <c r="B666" s="4">
+        <v>100</v>
+      </c>
+      <c r="C666" s="8">
+        <v>12142</v>
+      </c>
+      <c r="D666" s="4">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4">
+      <c r="A667" s="4">
+        <v>666</v>
+      </c>
+      <c r="B667" s="4">
+        <v>100</v>
+      </c>
+      <c r="C667" s="8">
+        <v>12143</v>
+      </c>
+      <c r="D667" s="4">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4">
+      <c r="A668" s="4">
+        <v>667</v>
+      </c>
+      <c r="B668" s="4">
+        <v>100</v>
+      </c>
+      <c r="C668" s="8">
+        <v>12144</v>
+      </c>
+      <c r="D668" s="4">
+        <v>2406</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19826,11 +20306,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F658"/>
+  <dimension ref="A1:F673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A629" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B644" sqref="B644:B658"/>
+      <pane ySplit="1" topLeftCell="A650" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B659" sqref="B659:B673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -29954,6 +30434,216 @@
       </c>
       <c r="E658" s="57" t="s">
         <v>788</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5">
+      <c r="A659" s="7">
+        <v>658</v>
+      </c>
+      <c r="B659" s="8">
+        <v>12130</v>
+      </c>
+      <c r="C659" s="56" t="s">
+        <v>794</v>
+      </c>
+      <c r="E659" s="57" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5">
+      <c r="A660" s="7">
+        <v>659</v>
+      </c>
+      <c r="B660" s="8">
+        <v>12131</v>
+      </c>
+      <c r="C660" s="56" t="s">
+        <v>795</v>
+      </c>
+      <c r="E660" s="57" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5">
+      <c r="A661" s="7">
+        <v>660</v>
+      </c>
+      <c r="B661" s="8">
+        <v>12132</v>
+      </c>
+      <c r="C661" s="56" t="s">
+        <v>796</v>
+      </c>
+      <c r="E661" s="57" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5">
+      <c r="A662" s="7">
+        <v>661</v>
+      </c>
+      <c r="B662" s="8">
+        <v>12133</v>
+      </c>
+      <c r="C662" s="56" t="s">
+        <v>797</v>
+      </c>
+      <c r="E662" s="57" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5">
+      <c r="A663" s="7">
+        <v>662</v>
+      </c>
+      <c r="B663" s="8">
+        <v>12134</v>
+      </c>
+      <c r="C663" s="56" t="s">
+        <v>798</v>
+      </c>
+      <c r="E663" s="57" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5">
+      <c r="A664" s="7">
+        <v>663</v>
+      </c>
+      <c r="B664" s="8">
+        <v>12135</v>
+      </c>
+      <c r="D664" s="56" t="s">
+        <v>799</v>
+      </c>
+      <c r="E664" s="57" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5">
+      <c r="A665" s="7">
+        <v>664</v>
+      </c>
+      <c r="B665" s="8">
+        <v>12136</v>
+      </c>
+      <c r="D665" s="56" t="s">
+        <v>802</v>
+      </c>
+      <c r="E665" s="57" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5">
+      <c r="A666" s="7">
+        <v>665</v>
+      </c>
+      <c r="B666" s="8">
+        <v>12137</v>
+      </c>
+      <c r="D666" s="56" t="s">
+        <v>803</v>
+      </c>
+      <c r="E666" s="57" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5">
+      <c r="A667" s="7">
+        <v>666</v>
+      </c>
+      <c r="B667" s="8">
+        <v>12138</v>
+      </c>
+      <c r="D667" s="56" t="s">
+        <v>805</v>
+      </c>
+      <c r="E667" s="57" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5">
+      <c r="A668" s="7">
+        <v>667</v>
+      </c>
+      <c r="B668" s="8">
+        <v>12139</v>
+      </c>
+      <c r="D668" s="56" t="s">
+        <v>806</v>
+      </c>
+      <c r="E668" s="57" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5">
+      <c r="A669" s="7">
+        <v>668</v>
+      </c>
+      <c r="B669" s="8">
+        <v>12140</v>
+      </c>
+      <c r="D669" s="56" t="s">
+        <v>809</v>
+      </c>
+      <c r="E669" s="57" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5">
+      <c r="A670" s="7">
+        <v>669</v>
+      </c>
+      <c r="B670" s="8">
+        <v>12141</v>
+      </c>
+      <c r="D670" s="56" t="s">
+        <v>812</v>
+      </c>
+      <c r="E670" s="57" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5">
+      <c r="A671" s="7">
+        <v>670</v>
+      </c>
+      <c r="B671" s="8">
+        <v>12142</v>
+      </c>
+      <c r="D671" s="56" t="s">
+        <v>805</v>
+      </c>
+      <c r="E671" s="57" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5">
+      <c r="A672" s="7">
+        <v>671</v>
+      </c>
+      <c r="B672" s="8">
+        <v>12143</v>
+      </c>
+      <c r="D672" s="56" t="s">
+        <v>813</v>
+      </c>
+      <c r="E672" s="57" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5">
+      <c r="A673" s="7">
+        <v>672</v>
+      </c>
+      <c r="B673" s="8">
+        <v>12144</v>
+      </c>
+      <c r="D673" s="56" t="s">
+        <v>812</v>
+      </c>
+      <c r="E673" s="57" t="s">
+        <v>816</v>
       </c>
     </row>
   </sheetData>
@@ -31362,10 +32052,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A12" sqref="A12:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -31546,6 +32236,48 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="39">
+        <v>107</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>818</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="39">
+        <v>108</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>818</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="39">
+        <v>109</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>818</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31555,10 +32287,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -31741,10 +32473,10 @@
       <c r="A16" s="58" t="s">
         <v>789</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="59">
         <v>104</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="59">
         <v>104</v>
       </c>
     </row>
@@ -31752,10 +32484,10 @@
       <c r="A17" s="58" t="s">
         <v>790</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="59">
         <v>105</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="59">
         <v>105</v>
       </c>
     </row>
@@ -31763,11 +32495,44 @@
       <c r="A18" s="58" t="s">
         <v>791</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="59">
         <v>106</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="59">
         <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="58" t="s">
+        <v>819</v>
+      </c>
+      <c r="B19" s="59">
+        <v>107</v>
+      </c>
+      <c r="C19" s="59">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="58" t="s">
+        <v>820</v>
+      </c>
+      <c r="B20" s="59">
+        <v>108</v>
+      </c>
+      <c r="C20" s="59">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="58" t="s">
+        <v>821</v>
+      </c>
+      <c r="B21" s="59">
+        <v>109</v>
+      </c>
+      <c r="C21" s="59">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
